--- a/data/trans_dic/P37A$medicoenfermedad-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoenfermedad-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04383181032010423</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09730743370640903</v>
+        <v>0.09730743370640901</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04184122683888473</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03664617361155383</v>
+        <v>0.03489617298923887</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03836982353783849</v>
+        <v>0.0369966415249867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03291686361315962</v>
+        <v>0.03235873797292363</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07393035325465389</v>
+        <v>0.07501976749428617</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03086665681169356</v>
+        <v>0.03038867406744415</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04100235920046914</v>
+        <v>0.03996358997756649</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02199411169579263</v>
+        <v>0.02251657432187802</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08534019589239075</v>
+        <v>0.08610538270268109</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03733232697498792</v>
+        <v>0.0359778222270665</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04221726133837519</v>
+        <v>0.0431073288336685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02942639462901021</v>
+        <v>0.03049339812522957</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0850601790381673</v>
+        <v>0.08569711373482652</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0728266299161993</v>
+        <v>0.07218277426380518</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06595185733996912</v>
+        <v>0.06704993588384101</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05763854445269579</v>
+        <v>0.05685377070902087</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1242930730041706</v>
+        <v>0.125944301220561</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05548701086378943</v>
+        <v>0.05553470360858682</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06813361414021719</v>
+        <v>0.06676763223485005</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04170083665765802</v>
+        <v>0.04235791149888435</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1263337997710074</v>
+        <v>0.1276860875563225</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05807527548687156</v>
+        <v>0.0575500894636974</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06301689700696507</v>
+        <v>0.06246278363572888</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04558537228515942</v>
+        <v>0.04574353926784867</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1176967841675651</v>
+        <v>0.1168254401057423</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02389153052932814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05685777456438414</v>
+        <v>0.05685777456438415</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02598122788373072</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02773563293143105</v>
+        <v>0.02805270022821066</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02344741445151691</v>
+        <v>0.02336206145379409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01451743759941099</v>
+        <v>0.01476361632293462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0434513614692136</v>
+        <v>0.04205400604593632</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01765371774562191</v>
+        <v>0.01719017898763363</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02974125825358342</v>
+        <v>0.02923478402863431</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01935742034995197</v>
+        <v>0.0197274783270699</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05514193768475343</v>
+        <v>0.05476318617161532</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02481578973357075</v>
+        <v>0.02513748751062894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02929449206114835</v>
+        <v>0.02944916542937851</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01945883021692997</v>
+        <v>0.01994552950828974</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05312594793134288</v>
+        <v>0.05355789802916238</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05132960212845447</v>
+        <v>0.05212433243555274</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05100308952470838</v>
+        <v>0.04857625856414048</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03659688606428534</v>
+        <v>0.03570383008751281</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07432844073333093</v>
+        <v>0.07375849478394535</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03737530652045312</v>
+        <v>0.03800001943879362</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05534272823246348</v>
+        <v>0.05472252524264156</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04293336267907807</v>
+        <v>0.04225240331591531</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07831562199125673</v>
+        <v>0.07767756236371159</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04054591200394549</v>
+        <v>0.04011230187230862</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04772101730773677</v>
+        <v>0.04803341555343963</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03421482242784108</v>
+        <v>0.03495597899965201</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07181957913527923</v>
+        <v>0.07126461072943019</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02662316551175877</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04590444632797868</v>
+        <v>0.04590444632797869</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01749438416569524</v>
+        <v>0.01780292767113079</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01865004532549056</v>
+        <v>0.01901038004346566</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01640773741588657</v>
+        <v>0.0163095331255869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03155067413067444</v>
+        <v>0.03288847199451</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01281732580173403</v>
+        <v>0.01322550146260622</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01753169765185906</v>
+        <v>0.01802654783964946</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01640864054382842</v>
+        <v>0.01615249223656154</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03822620601882404</v>
+        <v>0.03883515059320738</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01807216391935628</v>
+        <v>0.0177380977038066</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02072549498762394</v>
+        <v>0.02042512025495662</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01909750685607977</v>
+        <v>0.01875359275177028</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03864747861878341</v>
+        <v>0.03909801692640204</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03665050683109531</v>
+        <v>0.0377602308133048</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04212158645936729</v>
+        <v>0.04176730983976486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0399907355421491</v>
+        <v>0.03989816833945185</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05572140747730074</v>
+        <v>0.0550699215788087</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03042513972808839</v>
+        <v>0.03183324230591762</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04094115937358116</v>
+        <v>0.0410874440514728</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0395078800373062</v>
+        <v>0.04099178799583946</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05936861252505938</v>
+        <v>0.05996973145620434</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03096768025652998</v>
+        <v>0.03029018526179234</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03711146307659101</v>
+        <v>0.03736592291092466</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03575645874453355</v>
+        <v>0.03579794918972503</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05380929648684295</v>
+        <v>0.05480954364048836</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009569798399626198</v>
+        <v>0.008435450356987359</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01418036397099305</v>
+        <v>0.01434670271476589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0323950479189529</v>
+        <v>0.03189327154392781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03642823993479119</v>
+        <v>0.03692811023969574</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0081632201560254</v>
+        <v>0.008209527939868776</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01465769980727195</v>
+        <v>0.01402555344370327</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02036567035485973</v>
+        <v>0.01898260149737326</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03758844954347861</v>
+        <v>0.03856739966333005</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01168129387456911</v>
+        <v>0.01154753463094731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0175521523713958</v>
+        <v>0.01801924006580513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02912462960088899</v>
+        <v>0.02994095436459285</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04087861977763235</v>
+        <v>0.04033234154600331</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04166461001929438</v>
+        <v>0.04055368904996025</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04491848067804917</v>
+        <v>0.04578098994557975</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07293712715411806</v>
+        <v>0.070069145898614</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06236914136274845</v>
+        <v>0.06277620679274688</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03723869739665755</v>
+        <v>0.03862058461463128</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05051294920455816</v>
+        <v>0.04875741689361967</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05483277402212767</v>
+        <v>0.05455497082037958</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06058477305844127</v>
+        <v>0.06034818146342286</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03328735947773585</v>
+        <v>0.03298762279177982</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04100268454591775</v>
+        <v>0.04074988771859548</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05612113368536537</v>
+        <v>0.05658304209178043</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05806926327337819</v>
+        <v>0.05725146190298176</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.02995941096956014</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0631049922186995</v>
+        <v>0.06310499221869953</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03120892951872242</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02853065470311055</v>
+        <v>0.02835274560373333</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03032077972886507</v>
+        <v>0.03044187049784839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02895256028343449</v>
+        <v>0.02919262909991847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04929491154893851</v>
+        <v>0.04909505015071105</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02310860671721432</v>
+        <v>0.02288777998525185</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03317528377830437</v>
+        <v>0.03361567410270089</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02481374617919968</v>
+        <v>0.02435881253009191</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05620805385054598</v>
+        <v>0.05719040344941177</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02673398258538891</v>
+        <v>0.02729296080266411</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03333622760683243</v>
+        <v>0.03344751799930237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02849515834198031</v>
+        <v>0.02844049651888768</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0543324795320649</v>
+        <v>0.05473180788480699</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04062148540888408</v>
+        <v>0.04066408678127845</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04405556007427106</v>
+        <v>0.0436848293080069</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0416394482341043</v>
+        <v>0.04161036162219234</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06410668330883927</v>
+        <v>0.06501601122816658</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03470055758119378</v>
+        <v>0.03394095982636662</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0465583120717584</v>
+        <v>0.04712876694028813</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03638946887398281</v>
+        <v>0.0364769764306388</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06984067990856783</v>
+        <v>0.06992037868402361</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03526529539501268</v>
+        <v>0.0359282186216084</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04359113679436055</v>
+        <v>0.04278597022944973</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03692309201342208</v>
+        <v>0.03723654698947013</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06412832046776373</v>
+        <v>0.0643164180830504</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21407</v>
+        <v>20384</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40056</v>
+        <v>38622</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37130</v>
+        <v>36501</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36872</v>
+        <v>37415</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>28469</v>
+        <v>28028</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>45920</v>
+        <v>44756</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27703</v>
+        <v>28361</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>53216</v>
+        <v>53694</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>56240</v>
+        <v>54200</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>91352</v>
+        <v>93278</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>70257</v>
+        <v>72805</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>95465</v>
+        <v>96180</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42541</v>
+        <v>42165</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>68849</v>
+        <v>69996</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>65016</v>
+        <v>64131</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>61990</v>
+        <v>62813</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>51178</v>
+        <v>51221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>76305</v>
+        <v>74775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52525</v>
+        <v>53352</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>78779</v>
+        <v>79622</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>87489</v>
+        <v>86698</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>136360</v>
+        <v>135161</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>108838</v>
+        <v>109215</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>132093</v>
+        <v>131116</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29896</v>
+        <v>30238</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22910</v>
+        <v>22826</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13194</v>
+        <v>13418</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>41719</v>
+        <v>40378</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18669</v>
+        <v>18179</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>32545</v>
+        <v>31991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>19483</v>
+        <v>19855</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>61530</v>
+        <v>61107</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>52992</v>
+        <v>53679</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>60679</v>
+        <v>60999</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>37269</v>
+        <v>38202</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>110289</v>
+        <v>111185</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>55328</v>
+        <v>56185</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49834</v>
+        <v>47463</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33260</v>
+        <v>32449</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71365</v>
+        <v>70818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>39526</v>
+        <v>40186</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>60559</v>
+        <v>59881</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43211</v>
+        <v>42526</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>87388</v>
+        <v>86676</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>86583</v>
+        <v>85657</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>98846</v>
+        <v>99493</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>65532</v>
+        <v>66951</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>149096</v>
+        <v>147944</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19622</v>
+        <v>19968</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16507</v>
+        <v>16826</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13516</v>
+        <v>13435</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>33017</v>
+        <v>34417</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12740</v>
+        <v>13145</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15354</v>
+        <v>15788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12652</v>
+        <v>12455</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40047</v>
+        <v>40685</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>38232</v>
+        <v>37526</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36496</v>
+        <v>35967</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>30457</v>
+        <v>29909</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>80932</v>
+        <v>81876</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41107</v>
+        <v>42352</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37282</v>
+        <v>36969</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32943</v>
+        <v>32866</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>58311</v>
+        <v>57630</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30241</v>
+        <v>31640</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35856</v>
+        <v>35984</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30463</v>
+        <v>31607</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62197</v>
+        <v>62827</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65513</v>
+        <v>64080</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>65350</v>
+        <v>65798</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>57025</v>
+        <v>57091</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>112683</v>
+        <v>114778</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4280</v>
+        <v>3772</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7133</v>
+        <v>7217</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>16415</v>
+        <v>16160</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35551</v>
+        <v>36039</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2785</v>
+        <v>2801</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6636</v>
+        <v>6350</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9973</v>
+        <v>9296</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>34218</v>
+        <v>35110</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9209</v>
+        <v>9104</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>16776</v>
+        <v>17222</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>29020</v>
+        <v>29833</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>77108</v>
+        <v>76078</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18632</v>
+        <v>18136</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22595</v>
+        <v>23029</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36957</v>
+        <v>35504</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>60868</v>
+        <v>61265</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12704</v>
+        <v>13176</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>22869</v>
+        <v>22074</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>26851</v>
+        <v>26715</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>55153</v>
+        <v>54938</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>26242</v>
+        <v>26006</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>39189</v>
+        <v>38947</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>55919</v>
+        <v>56379</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>109535</v>
+        <v>107992</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>92178</v>
+        <v>91603</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>103368</v>
+        <v>103781</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>97491</v>
+        <v>98300</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>171610</v>
+        <v>170914</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>76604</v>
+        <v>75872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>117531</v>
+        <v>119091</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>87513</v>
+        <v>85908</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>207825</v>
+        <v>211457</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>174995</v>
+        <v>178654</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>231749</v>
+        <v>232523</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>196448</v>
+        <v>196071</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>390037</v>
+        <v>392903</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>131241</v>
+        <v>131379</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>150192</v>
+        <v>148928</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>140212</v>
+        <v>140114</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>223174</v>
+        <v>226339</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>115031</v>
+        <v>112513</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>164943</v>
+        <v>166964</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>128338</v>
+        <v>128647</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>258230</v>
+        <v>258525</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>230840</v>
+        <v>235179</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>303040</v>
+        <v>297442</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>254551</v>
+        <v>256712</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>460358</v>
+        <v>461708</v>
       </c>
     </row>
     <row r="24">
